--- a/simulation_data/one_step_algorithm/1s_error_level_5_percent_water_1.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_5_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.02996916902124</v>
+        <v>90.02788384022428</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6752805353764449</v>
+        <v>0.6661464953071362</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.10278343197238</v>
+        <v>88.99850289403147</v>
       </c>
       <c r="D3" t="n">
-        <v>0.670639991669714</v>
+        <v>0.6261238520138296</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.98101992449507</v>
+        <v>88.08238684234891</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6707399381946898</v>
+        <v>0.683111011843026</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.95541780578844</v>
+        <v>87.02337037332087</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5764027639290811</v>
+        <v>0.6538481576088127</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.00504239767828</v>
+        <v>86.07587213706765</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7306431916340632</v>
+        <v>0.7234205491216701</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.09272130831273</v>
+        <v>84.9445417851986</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6190264697003212</v>
+        <v>0.6132421544214559</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.00040855236637</v>
+        <v>84.01859781695364</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6592782553392974</v>
+        <v>0.5884124189431668</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.93088168896014</v>
+        <v>83.01576082338138</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5912853965044311</v>
+        <v>0.6331292192820556</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.07331706414601</v>
+        <v>81.98717452397281</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6995200505741878</v>
+        <v>0.7375470575827965</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.9161095184409</v>
+        <v>81.02997004787034</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6320113121412563</v>
+        <v>0.7476376795954941</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.98735198975777</v>
+        <v>80.07010877472793</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6274052912381622</v>
+        <v>0.610843890701709</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.90165916257958</v>
+        <v>78.98625999324199</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6243189388583313</v>
+        <v>0.5448849402254785</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.99360470651301</v>
+        <v>77.97768697961813</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7008054917056696</v>
+        <v>0.6602750914888722</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.97084630195437</v>
+        <v>77.07435226204642</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7036673342544967</v>
+        <v>0.5895003006505717</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.96589277548522</v>
+        <v>75.89965648531194</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6690137760209699</v>
+        <v>0.6480571636685064</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.11249443180927</v>
+        <v>75.01027520571577</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6175512618449821</v>
+        <v>0.6093354558025809</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.02854916035263</v>
+        <v>74.07448955590043</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6793901008907367</v>
+        <v>0.7049011167824314</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.00620261742417</v>
+        <v>72.92862757733157</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5601875921836508</v>
+        <v>0.6135475373332883</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.9853568324727</v>
+        <v>71.89615173436304</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6479982931818915</v>
+        <v>0.5878768380704285</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.05470650839654</v>
+        <v>70.95028914188327</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5921665596246753</v>
+        <v>0.6677617298013364</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.94997002254394</v>
+        <v>70.07838190560919</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6514405742162783</v>
+        <v>0.6901257147777412</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.97446049651546</v>
+        <v>69.0276715473038</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6559787112020166</v>
+        <v>0.609063503871716</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.98438855106534</v>
+        <v>67.9334440687267</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6180310660808398</v>
+        <v>0.6502452516810061</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.96018498070077</v>
+        <v>66.96362443651192</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6130491570731251</v>
+        <v>0.6433461962569156</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.9393854743159</v>
+        <v>66.02252973488498</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6152189889619335</v>
+        <v>0.5919093346730696</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.96077285277519</v>
+        <v>64.97525316092607</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6057005863859896</v>
+        <v>0.571242179919637</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.05900391421173</v>
+        <v>63.9192036588423</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6976612786347106</v>
+        <v>0.5697719221255764</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.09204737087209</v>
+        <v>62.92653215417295</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6349429055467337</v>
+        <v>0.5996193654721694</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.00595427170577</v>
+        <v>62.04874612571745</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6896117724286769</v>
+        <v>0.5695593646606878</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.00955352526165</v>
+        <v>61.04133600955776</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6628848722440555</v>
+        <v>0.696442244990654</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.01370574484163</v>
+        <v>60.00047910477309</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7287405728348811</v>
+        <v>0.5895702722502278</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.95155615989789</v>
+        <v>58.93476677485942</v>
       </c>
       <c r="D33" t="n">
-        <v>0.570606481307113</v>
+        <v>0.6233212120923013</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.00585114654363</v>
+        <v>58.04135888241678</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6267596702217264</v>
+        <v>0.6158919078621179</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.97867372580425</v>
+        <v>56.95888776649329</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5813942296189619</v>
+        <v>0.6767735628874511</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.03138394524909</v>
+        <v>56.00380941137479</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6098674183137849</v>
+        <v>0.5470231334039062</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.00873105288854</v>
+        <v>54.8913951359683</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6375954713487597</v>
+        <v>0.6202794902142404</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.99936381552806</v>
+        <v>54.01992188033564</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6798764964117935</v>
+        <v>0.5858216568765418</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.13961068052917</v>
+        <v>53.15768875746621</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6227670232962407</v>
+        <v>0.6485063854610701</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.08897945322614</v>
+        <v>51.92724602406464</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6206573214425736</v>
+        <v>0.5963663794137705</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.07690761801437</v>
+        <v>50.91924722814331</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5810410270190257</v>
+        <v>0.6427022753588578</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.9989414026596</v>
+        <v>49.92337462391296</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5879209826869093</v>
+        <v>0.6910719768823065</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.95272789937391</v>
+        <v>48.96004209083842</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6311256470787945</v>
+        <v>0.7077258983319281</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.08657376361877</v>
+        <v>48.09734944681814</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6605402912758929</v>
+        <v>0.6074183655166423</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.0038521208706</v>
+        <v>47.02483976620852</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7026890162773041</v>
+        <v>0.6519182005765561</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.92069599687504</v>
+        <v>46.03106600989467</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5964883254790212</v>
+        <v>0.5966246663625957</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.987686598199</v>
+        <v>45.01337735367114</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5922965450735669</v>
+        <v>0.6075652751542643</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.99950702735737</v>
+        <v>43.97711820035147</v>
       </c>
       <c r="D48" t="n">
-        <v>0.656879886184225</v>
+        <v>0.5103379105129772</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.02598594287312</v>
+        <v>43.07350423564739</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5492848392721694</v>
+        <v>0.5590551939436261</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.915370361019</v>
+        <v>41.88073604888667</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5910418863269218</v>
+        <v>0.5612796754693599</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.0733288082658</v>
+        <v>40.9826793401224</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5838172408682202</v>
+        <v>0.5636105435110987</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.99683974747927</v>
+        <v>40.01874660875528</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6494614086564511</v>
+        <v>0.5560291682761154</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.10280615067873</v>
+        <v>38.98320231621143</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6415590842417004</v>
+        <v>0.5605483891968659</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.95985287347241</v>
+        <v>38.02166198096341</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6327983756845202</v>
+        <v>0.487437935571651</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.00703705283802</v>
+        <v>37.11973930820383</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6032825327083272</v>
+        <v>0.5795845694806051</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.09723745423074</v>
+        <v>35.88572070532274</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6489609926971994</v>
+        <v>0.5735898734275956</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.01089504518912</v>
+        <v>34.89441857986629</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5828154625331261</v>
+        <v>0.6557715482593997</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.03627461888384</v>
+        <v>34.00196035523287</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6170757213936813</v>
+        <v>0.6870348580119766</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.95646351963005</v>
+        <v>32.93807317895428</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5740057208188194</v>
+        <v>0.5711335575841215</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.94677596212112</v>
+        <v>32.04039945755094</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6752819808645231</v>
+        <v>0.527718430126929</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.9923955028068</v>
+        <v>30.93216186896144</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6515199086376829</v>
+        <v>0.6551651225785543</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.00323649904082</v>
+        <v>30.04813932949947</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6641894382797523</v>
+        <v>0.5099892984741076</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.97961254388215</v>
+        <v>29.07303052359662</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5436946784448751</v>
+        <v>0.5836057570208035</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.05372404623515</v>
+        <v>27.90443874937974</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6574444588065831</v>
+        <v>0.6059197287784174</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.94075161728769</v>
+        <v>26.97832371918603</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6091361979312514</v>
+        <v>0.5615394579468311</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.02050443105152</v>
+        <v>26.11287371915449</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5772800627321248</v>
+        <v>0.6122866704269462</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.96954680923505</v>
+        <v>25.08097783616316</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6000669280140956</v>
+        <v>0.6053565471637996</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.03320377872358</v>
+        <v>24.01436989080488</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5620914157431167</v>
+        <v>0.6065963563159764</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.87327703362845</v>
+        <v>22.96989427823163</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5776018312515554</v>
+        <v>0.578738113529071</v>
       </c>
     </row>
   </sheetData>
